--- a/medicine/Mort/Orange_Hill_Cemetery_(Feuchy)/Orange_Hill_Cemetery_(Feuchy).xlsx
+++ b/medicine/Mort/Orange_Hill_Cemetery_(Feuchy)/Orange_Hill_Cemetery_(Feuchy).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Orange Hill Cemetery (Feuchy)  est un cimetière militaire de la Première Guerre mondiale, situé sur le territoire de la commune de Feuchy, dans le département du Pas-de-Calais, à l'est d'Arras. 
 </t>
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière en pleine campagne, à 2 km au sud-est du village, à l'extrémité d'un bosquet.
 </t>
@@ -542,7 +556,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Feuchy fut capturée par les troupes du Commonwealth  le 9 avril 1917.
 Cette colline fut atteinte par la 12e Division le 10 avril 1917. Elle fut perdue fin mars 1918 puis reprise définitivement  par les troupes canadiennes dans les derniers d'août 1918. 
@@ -575,7 +591,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce  cimetière a un plan quasi carré de 20 m de côté.
 Il est entouré entièrement clos par un muret de silex.
@@ -609,6 +627,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
